--- a/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.03104474456332631</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.15760387990408</v>
+        <v>1.157603879904079</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.436053145139563</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.826451066450562</v>
+        <v>-0.8791899050595208</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9426363202376026</v>
+        <v>-0.9918233870342907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004198125276251275</v>
+        <v>-0.1213972254542752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4561679187444569</v>
+        <v>-0.4428899553799344</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9817422965413294</v>
+        <v>-0.9900284135883826</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7907317727423807</v>
+        <v>-0.7591300756721202</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3268744680244384</v>
+        <v>-0.3276542739794919</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.739825045876122</v>
+        <v>-0.6984798904448506</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.1839012046739037</v>
+        <v>-0.1615676085041753</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9878976698591524</v>
+        <v>0.9522118879469512</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9798286471942714</v>
+        <v>0.9536380861343606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.759690415338298</v>
+        <v>2.69137954100929</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.341899369111616</v>
+        <v>1.332190592658514</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5572901182983326</v>
+        <v>0.6525931878659258</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7790631481293044</v>
+        <v>0.7799100588820624</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9813815813091025</v>
+        <v>0.8727298796410401</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5403017752330612</v>
+        <v>0.4756358444676035</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.299526682230743</v>
+        <v>1.349996922185147</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5916762339548325</v>
+        <v>-0.5816375632430222</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6860055139821889</v>
+        <v>-0.6818640272301051</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1129888576357787</v>
+        <v>-0.1809510808427312</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3434940620937991</v>
+        <v>-0.3318406809883188</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7376145542840281</v>
+        <v>-0.7054349454206439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5290602138879398</v>
+        <v>-0.5500111252089521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2829585239954819</v>
+        <v>-0.2667593907421387</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5674323124406822</v>
+        <v>-0.5474272029918722</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1877043043691465</v>
+        <v>-0.1479950614117345</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.856713919285083</v>
+        <v>1.677922096153897</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.999282692340964</v>
+        <v>1.814053246990769</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.860205166826931</v>
+        <v>4.097445515322193</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.174412097709231</v>
+        <v>1.919278754262508</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8405836356066183</v>
+        <v>1.00243680116254</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.224573831283852</v>
+        <v>1.128594123896855</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.450575092339655</v>
+        <v>1.126267443766472</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7489892619755518</v>
+        <v>0.681034575533376</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.703652760800066</v>
+        <v>1.826522917781903</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.167925655293792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.5494909354302367</v>
+        <v>-0.5494909354302361</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.5541963374322247</v>
@@ -869,7 +869,7 @@
         <v>-0.799500347902648</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.4998232720118205</v>
+        <v>-0.4998232720118208</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.6128812747879094</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.637625177976114</v>
+        <v>-1.574320944886843</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.054953497682185</v>
+        <v>-2.08271340584343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.479120408495325</v>
+        <v>-1.55564796409096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.527188729579267</v>
+        <v>-1.560529469096977</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.795842266579982</v>
+        <v>-1.768666083087019</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.435741178289947</v>
+        <v>-1.465228505637882</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.295767657141594</v>
+        <v>-1.222262904679237</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.607054706796611</v>
+        <v>-1.694082498755804</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.193109644489798</v>
+        <v>-1.176765760091521</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3129775398004816</v>
+        <v>0.2073248514572514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.335113981051092</v>
+        <v>-0.3459416744761165</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4004148389346391</v>
+        <v>0.3951532912774126</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3800499339666979</v>
+        <v>0.2768477466841737</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07007729417678842</v>
+        <v>0.01801707245151462</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3439407598312848</v>
+        <v>0.3464515962438346</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.003618985252649355</v>
+        <v>0.08144551788370576</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.4016362491487491</v>
+        <v>-0.415529177245627</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1308358255709733</v>
+        <v>0.1281624887596432</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5581263378439479</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2625897993421307</v>
+        <v>-0.2625897993421303</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2722769536480005</v>
@@ -974,7 +974,7 @@
         <v>-0.3927949437126537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2455634378536424</v>
+        <v>-0.2455634378536426</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2968043109812677</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5923656337924438</v>
+        <v>-0.5996484410635141</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7452785505138965</v>
+        <v>-0.7687185305490398</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5689629518674146</v>
+        <v>-0.5737200861212427</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5709207766415162</v>
+        <v>-0.6107530400262241</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.658958581365492</v>
+        <v>-0.6515536566868499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5472380101853275</v>
+        <v>-0.549727950797266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5119953739538261</v>
+        <v>-0.4991806044306183</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6555201791000214</v>
+        <v>-0.6584854581385626</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4860535527663422</v>
+        <v>-0.4747710284180398</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2415677899819084</v>
+        <v>0.1535115117697072</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1377913498134127</v>
+        <v>-0.1824249220152417</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2819273936890166</v>
+        <v>0.294320991117482</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2942047820235273</v>
+        <v>0.19113562827731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07617876035350764</v>
+        <v>0.09719613708651355</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2532203578081964</v>
+        <v>0.2386879689549579</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02231408870344993</v>
+        <v>0.07354117478763525</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2360684469186645</v>
+        <v>-0.2277606958484784</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1005857777860346</v>
+        <v>0.09147407025563342</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.8962796267190898</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1495186932653384</v>
+        <v>0.1495186932653381</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.1969158079882294</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.330071341815148</v>
+        <v>-2.161221747080586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.506156432498972</v>
+        <v>-2.393876738987586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.58817019343558</v>
+        <v>-1.56754561618074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.496502203349699</v>
+        <v>-1.731829871464899</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.806957763734175</v>
+        <v>-2.848194438399243</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.99429874624054</v>
+        <v>-1.95259700997836</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.397261758363474</v>
+        <v>-1.304878647661734</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.089584556680217</v>
+        <v>-2.151894916367445</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.22127900318065</v>
+        <v>-1.202798926239054</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9306254331822422</v>
+        <v>1.044769065337006</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.694378253234278</v>
+        <v>0.8089804053000469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.836005941176458</v>
+        <v>1.83551578858467</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.485962421010824</v>
+        <v>2.173363583222101</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2399308594624168</v>
+        <v>0.4111777698972102</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.477419764164579</v>
+        <v>1.43431181561695</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.00329625987572</v>
+        <v>1.032561133670002</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1009042765344854</v>
+        <v>0.1117536118958481</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.190758024878437</v>
+        <v>1.21940048633185</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5130641255913588</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.08559011644675774</v>
+        <v>0.08559011644675753</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.09005876299854688</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8564907285052277</v>
+        <v>-0.8424997115379844</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9303710398374101</v>
+        <v>-0.9925111210516671</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6326310019965526</v>
+        <v>-0.6151246753106097</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5582083600309868</v>
+        <v>-0.5794693657909666</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8767755934065733</v>
+        <v>-0.8598499988769557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6262971076888139</v>
+        <v>-0.6064769247066408</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5436577477257512</v>
+        <v>-0.5336483091866152</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8066945967267063</v>
+        <v>-0.7989034264327283</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.459261098044674</v>
+        <v>-0.4615713793788041</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.043682348212097</v>
+        <v>1.354416348822981</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.219655404015475</v>
+        <v>1.500641103990313</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.137164177694553</v>
+        <v>2.189930400226053</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.196151327914133</v>
+        <v>1.85036483684445</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3092722449053055</v>
+        <v>0.7736672487794003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.292508793108903</v>
+        <v>1.158576478967558</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8326381625434568</v>
+        <v>0.8848639000003747</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2046399161578726</v>
+        <v>0.2202053996030997</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9720988797521933</v>
+        <v>0.9034559191325399</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.668579082108562</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.05375915686247797</v>
+        <v>-0.05375915686247762</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.045380679806106</v>
+        <v>-0.9915826471689136</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.346540471877925</v>
+        <v>-1.391860302975112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6517483508237022</v>
+        <v>-0.6597509320738338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6949392544591004</v>
+        <v>-0.6493721608237379</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.150269129994034</v>
+        <v>-1.194460393812311</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7204835955823264</v>
+        <v>-0.7320785960973208</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6270655628826718</v>
+        <v>-0.6640293210040529</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.062511127800849</v>
+        <v>-1.061466348098798</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.5044259511886593</v>
+        <v>-0.5192699797660819</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2001119424884049</v>
+        <v>0.2493741731263411</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1896513070811918</v>
+        <v>-0.2149160115476193</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7197622036462908</v>
+        <v>0.7468997932315621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5127061156073478</v>
+        <v>0.6119515280716653</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0297038245206398</v>
+        <v>0.02772044936058635</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4680379110753729</v>
+        <v>0.4835523291336311</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1974410568483922</v>
+        <v>0.211545021895977</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.2893003476214054</v>
+        <v>-0.2909692265622981</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3645804701637116</v>
+        <v>0.4302870061143116</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.3981691328909879</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.03201601343161336</v>
+        <v>-0.03201601343161315</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5111238580736354</v>
+        <v>-0.487665526023307</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6666346352008835</v>
+        <v>-0.6750451850298455</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3375106920705751</v>
+        <v>-0.3275682099102406</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3487472656622072</v>
+        <v>-0.3321040428972002</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5603605221288268</v>
+        <v>-0.5870527476782271</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3604701710879036</v>
+        <v>-0.362661426421036</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3351449501643631</v>
+        <v>-0.3519897147873461</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.561809824706888</v>
+        <v>-0.5674011637025635</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2624284401938546</v>
+        <v>-0.2651569551778261</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1518079177015751</v>
+        <v>0.1910685275149499</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1303337821388082</v>
+        <v>-0.1411407381739664</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5318127673068395</v>
+        <v>0.5212190587213816</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3825699632071528</v>
+        <v>0.5071706122369228</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06933399393901987</v>
+        <v>0.04185899016926171</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3689744985522296</v>
+        <v>0.3807974182118938</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1410085589882783</v>
+        <v>0.1481008972214308</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1864235965262895</v>
+        <v>-0.1857496287132908</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2631233531564838</v>
+        <v>0.2881632135789565</v>
       </c>
     </row>
     <row r="28">
